--- a/SourceCode/2024/Basics-April2024/Madhuri/task-16/result.xlsx
+++ b/SourceCode/2024/Basics-April2024/Madhuri/task-16/result.xlsx
@@ -14,36 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <x:si>
-    <x:t>Column1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column3</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> subject</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject</x:t>
   </x:si>
   <x:si>
     <x:t>marks</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> maths</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> science</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> english</x:t>
+    <x:t>madhuri</x:t>
+  </x:si>
+  <x:si>
+    <x:t>social</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aadhya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pavani</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -394,7 +385,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -418,8 +409,8 @@
       <x:c r="B2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>4</x:v>
+      <x:c r="C2" s="0" t="n">
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -427,43 +418,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
